--- a/data/trans_dic/P16B13-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B13-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16B13-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B13-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,23%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>61,47; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,58%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>92,39; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>54,08; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>92,68; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>92,07; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>90,51; 100</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>96,18; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>79,78; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,91%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>77,97; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>84,12; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>72,09; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>81,42; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>96,1; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>76,92; 97,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>85,13; 98,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>93,36; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>84,06; 98,5</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,66%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>92,68; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>78,87; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>72,86; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>88,37; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>92,39; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>96,76; 100</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>87,56; 98,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>88,54; 100,0</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,44%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,21%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,11%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,35%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,1%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,89%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>67,67; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>67,38; 95,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>79,64; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>77,33; 97,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>91,02; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>87,73; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>81,78; 96,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>83,26; 96,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>88,75; 100,0</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,95%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>88,83; 98,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>85,15; 96,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>84,96; 98,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>90,16; 98,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>95,8; 99,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>93,26; 99,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>91,82; 97,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>92,79; 97,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>92,17; 98,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B13-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B13-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -637,42 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>70,73%</t>
+          <t>97,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>92,26%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>89,23%</t>
+          <t>98,85%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,68%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>87,45; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>60,72; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>90,95; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,75; 100</t>
+          <t>93,64; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,25; 100</t>
+          <t>94,04; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>81,26; 100</t>
+          <t>93,43; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,47; 100,0</t>
+          <t>93,71; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>87,39; 100</t>
+          <t>84,0; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>93,12%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>95,01%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>94,13%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>93,95%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>89,72%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>91,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>92,91%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>69,43; 100</t>
+          <t>77,97; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>92,39; 100</t>
+          <t>84,12; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,08; 100,0</t>
+          <t>72,09; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>87,39; 100</t>
+          <t>81,42; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,68; 100</t>
+          <t>96,1; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,07; 100</t>
+          <t>76,92; 97,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>90,51; 100</t>
+          <t>85,13; 98,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,18; 100</t>
+          <t>93,36; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>79,78; 100,0</t>
+          <t>84,06; 98,5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>93,12%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>95,01%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>97,16%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>91,92%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>97,9%</t>
+          <t>95,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>97,66%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>77,97; 100,0</t>
+          <t>92,68; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,12; 100,0</t>
+          <t>78,87; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>72,09; 100,0</t>
+          <t>72,86; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81,42; 100,0</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>96,1; 100</t>
+          <t>88,37; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>76,92; 97,52</t>
+          <t>92,39; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>85,13; 98,52</t>
+          <t>96,76; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>93,36; 100,0</t>
+          <t>87,56; 98,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>84,06; 98,5</t>
+          <t>88,54; 100,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>93,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>84,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>90,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>97,16%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>92,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>96,89%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>92,68; 100</t>
+          <t>67,67; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,87; 100,0</t>
+          <t>67,38; 95,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,86; 100,0</t>
+          <t>79,64; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94,39; 100</t>
+          <t>77,33; 97,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,37; 100,0</t>
+          <t>91,02; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,39; 100</t>
+          <t>87,73; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,76; 100</t>
+          <t>81,78; 96,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>87,56; 98,61</t>
+          <t>83,26; 96,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88,54; 100,0</t>
+          <t>88,75; 100,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>93,44%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>84,21%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>90,11%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>98,44%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>97,14%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>97,35%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>91,35%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>92,1%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>96,89%</t>
+          <t>95,95%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>67,67; 100,0</t>
+          <t>88,83; 98,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>67,38; 95,47</t>
+          <t>85,15; 96,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,64; 100,0</t>
+          <t>84,96; 98,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>77,33; 97,48</t>
+          <t>90,16; 98,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>91,02; 100,0</t>
+          <t>95,8; 99,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,73; 100,0</t>
+          <t>93,26; 99,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,78; 96,87</t>
+          <t>91,82; 97,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>83,26; 96,54</t>
+          <t>92,79; 97,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>88,75; 100,0</t>
+          <t>92,17; 98,18</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>95,86%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>92,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>94,26%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>95,25%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>98,44%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>97,14%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>95,5%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>95,71%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>95,95%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>88,83; 98,95</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>85,15; 96,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>84,96; 98,14</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>90,16; 98,34</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>95,8; 99,53</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>93,26; 99,32</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>91,82; 97,86</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>92,79; 97,69</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>92,17; 98,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16B13-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B13-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +691,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,45; 100,0</t>
+          <t>89,49; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60,72; 100,0</t>
+          <t>66,06; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -720,12 +721,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>93,71; 100,0</t>
+          <t>93,98; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,0; 100,0</t>
+          <t>84,03; 100,0</t>
         </is>
       </c>
     </row>
@@ -795,22 +796,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,97; 100,0</t>
+          <t>78,02; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,12; 100,0</t>
+          <t>81,69; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>72,09; 100,0</t>
+          <t>72,17; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>81,42; 100,0</t>
+          <t>80,49; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,22 +821,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>76,92; 97,52</t>
+          <t>79,53; 97,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>85,13; 98,52</t>
+          <t>84,76; 98,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>93,36; 100,0</t>
+          <t>92,99; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>84,06; 98,5</t>
+          <t>81,8; 98,42</t>
         </is>
       </c>
     </row>
@@ -910,12 +911,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>78,87; 100,0</t>
+          <t>75,62; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>72,86; 100,0</t>
+          <t>69,51; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -925,7 +926,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,37; 100,0</t>
+          <t>86,13; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -940,12 +941,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,56; 98,61</t>
+          <t>87,34; 98,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>88,54; 100,0</t>
+          <t>87,88; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,67; 100,0</t>
+          <t>68,98; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,38; 95,47</t>
+          <t>66,69; 95,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,64; 100,0</t>
+          <t>79,35; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>77,33; 97,48</t>
+          <t>77,47; 97,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,02; 100,0</t>
+          <t>91,06; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,73; 100,0</t>
+          <t>86,24; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>81,78; 96,87</t>
+          <t>81,64; 96,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,26; 96,54</t>
+          <t>84,36; 96,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88,75; 100,0</t>
+          <t>88,79; 100,0</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>88,83; 98,95</t>
+          <t>87,8; 98,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>85,15; 96,06</t>
+          <t>85,78; 96,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,96; 98,14</t>
+          <t>86,06; 98,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>90,16; 98,34</t>
+          <t>90,23; 98,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>95,8; 99,53</t>
+          <t>95,78; 99,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>93,26; 99,32</t>
+          <t>92,91; 99,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>91,82; 97,86</t>
+          <t>91,94; 97,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>92,79; 97,69</t>
+          <t>92,54; 97,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>92,17; 98,18</t>
+          <t>92,18; 98,14</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para alteraciones digestivas fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8027</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>30977</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22075</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19276</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>32385</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>31802</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27303</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>63362</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>53876</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6361; 8027</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>28384; 31717</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15805; 23926</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17532; 19276</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>30327; 32385</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>29906; 31802</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>25509; 27303</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>60241; 64102</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>46826; 55727</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>27297</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>37171</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>26524</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>28098</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>54026</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>31656</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>55394</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>91197</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>58181</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22871; 29313</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>31958; 39123</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>20338; 28179</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>24073; 29907</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>51918; 54026</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>27388; 33626</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>50197; 58195</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>86615; 93149</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>51224; 61630</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24886</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>25577</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20837</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>31237</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>36867</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>27723</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>56122</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>62443</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>48559</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23063; 24886</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20789; 27491</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15295; 22003</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>29484; 31237</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>32681; 37945</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25612; 27723</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>54302; 56122</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>57150; 64527</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>43700; 49725</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>21726</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>35313</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22855</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>35187</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>63859</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>43800</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>56914</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>99172</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>66656</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>16040; 23252</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>27965; 40045</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18888; 23802</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>30253; 38064</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>59861; 65740</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>38804; 44994</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>50867; 60415</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>90832; 103994</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>61081; 68796</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>81936</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>129037</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>92292</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>113797</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>187136</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>134981</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>195734</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>316174</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>227273</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>75049; 84577</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>120311; 135496</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>84259; 96038</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>107798; 117533</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>182076; 189201</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>129107; 138000</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>188423; 200356</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>305713; 322735</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>218352; 232463</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>